--- a/TemplateOrarioSettimana.xlsx
+++ b/TemplateOrarioSettimana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicolaCardi/Cartelle/localhost/waldorf/swapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63C27E-3A4D-6A43-A17C-39B46A9EB064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C08822-16B7-5E49-917A-ABE5EDC59023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="12960" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="12960" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NIDOA" sheetId="14" r:id="rId1"/>
@@ -25,26 +25,36 @@
     <sheet name="VIA" sheetId="7" r:id="rId10"/>
     <sheet name="VIIA" sheetId="8" r:id="rId11"/>
     <sheet name="VIIIA" sheetId="9" r:id="rId12"/>
-    <sheet name="I-VIII" sheetId="10" r:id="rId13"/>
-    <sheet name="XX" sheetId="2" r:id="rId14"/>
+    <sheet name="IXA" sheetId="17" r:id="rId13"/>
+    <sheet name="XA" sheetId="18" r:id="rId14"/>
+    <sheet name="XIA" sheetId="19" r:id="rId15"/>
+    <sheet name="XIIA" sheetId="20" r:id="rId16"/>
+    <sheet name="XIIIA" sheetId="16" r:id="rId17"/>
+    <sheet name="I-VIII" sheetId="10" r:id="rId18"/>
+    <sheet name="XX" sheetId="2" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">IA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">IIA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">IIIA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">IVA!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">IXA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">VA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">VIA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">VIIA!$C$2:$J$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">VIIIA!$C$2:$J$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">XX!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">XA!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">XIA!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">XIIA!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">XIIIA!$C$2:$J$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">XX!$C$2:$J$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="7">
   <si>
     <t>Ora</t>
   </si>
@@ -879,17 +889,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1583,6 +1593,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F372034F-1C1F-9C42-A02A-B3A3E8D842A5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FCBD2B-2022-3744-8330-C5DBE63FFB1A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC774A5-6EB3-4442-9F69-965E1CD3B82B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77275BD-A8AA-0243-A648-4B6FB4C0645C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE631BD4-FA22-3E4B-B009-366347D03467}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="3:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="9"/>
+      <c r="E3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="9"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="9"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="21"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="22"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="22"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="11">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715BFA5B-638D-B445-B835-4E19E687DBEA}">
   <dimension ref="D2:N124"/>
   <sheetViews>
@@ -3331,84 +4486,84 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="D55:D64"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D35:D44"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D95:D104"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
     <mergeCell ref="D115:D124"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="E117:E118"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="E121:E122"/>
     <mergeCell ref="E123:E124"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="D95:D104"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D14"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D15:D24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D25:D34"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D35:D44"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D55:D64"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D75:D84"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3869,17 +5024,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4074,17 +5229,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4279,17 +5434,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
